--- a/doc/tasks-track-v2.xlsx
+++ b/doc/tasks-track-v2.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\coding-case\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94013B4E-D1AC-4FB8-9DD5-FF2CAED9C378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7426546-4980-4DCB-9751-80BC6B0E17D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks Track" sheetId="1" r:id="rId1"/>
+    <sheet name="Total" sheetId="2" r:id="rId2"/>
+    <sheet name="Refer" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tasks Track'!$A$2:$L$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tasks Track'!$A$1:$L$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -62,9 +64,6 @@
   </si>
   <si>
     <t>High</t>
-  </si>
-  <si>
-    <t>build sso login</t>
   </si>
   <si>
     <t>patrick</t>
@@ -97,7 +96,10 @@
     <t>Effort(Manday)</t>
   </si>
   <si>
-    <t>Total Effort</t>
+    <t>Total Effort:</t>
+  </si>
+  <si>
+    <t>build sso login, (When, Where, Who, What, Why, How To, Result)</t>
   </si>
 </sst>
 </file>
@@ -169,17 +171,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -455,350 +458,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="133" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.9140625" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="12.58203125" customWidth="1"/>
-    <col min="7" max="7" width="9.25" customWidth="1"/>
-    <col min="8" max="8" width="14.4140625" customWidth="1"/>
-    <col min="9" max="9" width="73.25" customWidth="1"/>
-    <col min="10" max="10" width="18.25" customWidth="1"/>
-    <col min="11" max="11" width="18.08203125" customWidth="1"/>
-    <col min="12" max="12" width="17.9140625" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.9140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.9140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="9.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.58203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.4140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="73.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.08203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="17.9140625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" customHeight="1">
-      <c r="E1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="140.5" customHeight="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1">
-        <f>SUM(F3:F100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="17" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4">
+        <v>46022</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="133" customHeight="1">
+      <c r="A3" s="2">
         <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="140.5" customHeight="1">
-      <c r="A3" s="2">
-        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="3">
-        <v>46022</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="133" customHeight="1">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="133" customHeight="1">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="133" customHeight="1">
       <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="133" customHeight="1">
       <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="133" customHeight="1">
       <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="133" customHeight="1">
       <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="133" customHeight="1">
       <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="133" customHeight="1">
       <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="133" customHeight="1">
       <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="133" customHeight="1">
       <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="133" customHeight="1">
       <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="133" customHeight="1">
       <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="133" customHeight="1">
       <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" ht="133" customHeight="1">
-      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L17" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L16" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"High,Medium,Low,Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>"Open,In-progress,Blocked,Done"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{7071FB78-B1A9-4E95-A4EF-A56272063B9F}">
+      <formula1>"Open,In-progress,Pending,Blocked,Cancelled,Done"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB5EE3B-9293-46B8-967F-9F7F538FF0BF}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1">
+        <f>SUM('Tasks Track'!G2:G100)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE2C966-D977-4638-A844-B20497B730B5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/tasks-track-v2.xlsx
+++ b/doc/tasks-track-v2.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\coding-case\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7426546-4980-4DCB-9751-80BC6B0E17D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB35EA2-E902-4C0A-B390-289FCE3E421F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks Track" sheetId="1" r:id="rId1"/>
     <sheet name="Total" sheetId="2" r:id="rId2"/>
     <sheet name="Refer" sheetId="3" r:id="rId3"/>
+    <sheet name="Interview" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tasks Track'!$A$1:$L$16</definedName>
@@ -460,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
@@ -694,4 +695,36 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6476AF6B-1FDD-4DE1-BFBF-48D57A2C1427}">
+  <dimension ref="B1:B31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="7.58203125" customWidth="1"/>
+    <col min="2" max="2" width="14.4140625" customWidth="1"/>
+    <col min="3" max="3" width="82.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>